--- a/outputs-HGR-r202/test-f__Bacteroidaceae_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__Bacteroidaceae_split_pruned.xlsx
@@ -215,9 +215,9 @@
     <col min="8" max="8" width="16.42578125" customWidth="true"/>
     <col min="9" max="9" width="15.7109375" customWidth="true"/>
     <col min="10" max="10" width="22.140625" customWidth="true"/>
-    <col min="11" max="11" width="15.7109375" customWidth="true"/>
+    <col min="11" max="11" width="15.5703125" customWidth="true"/>
     <col min="12" max="12" width="15.7109375" customWidth="true"/>
-    <col min="13" max="13" width="15.7109375" customWidth="true"/>
+    <col min="13" max="13" width="15.5703125" customWidth="true"/>
     <col min="14" max="14" width="10.28515625" customWidth="true"/>
   </cols>
   <sheetData>
@@ -270,40 +270,40 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.8454024087365183e-06</v>
+        <v>0.00011629737840904494</v>
       </c>
       <c r="C2">
-        <v>0.0053050768353056837</v>
+        <v>0.0016336359386867534</v>
       </c>
       <c r="D2">
-        <v>0.00036947331129865248</v>
+        <v>0.0035609044317620802</v>
       </c>
       <c r="E2">
-        <v>0.0011438015284768697</v>
+        <v>0.0037367948345451846</v>
       </c>
       <c r="F2">
-        <v>2.2238823450228016e-14</v>
+        <v>2.2200212918167242e-14</v>
       </c>
       <c r="G2">
-        <v>0.00021268019543683542</v>
+        <v>3.3016017909214304e-05</v>
       </c>
       <c r="H2">
-        <v>0.0017689394571029735</v>
+        <v>0.00017017705111746273</v>
       </c>
       <c r="I2">
-        <v>0.98405824275027132</v>
+        <v>0.98624863924274986</v>
       </c>
       <c r="J2">
-        <v>0.0071091952266332551</v>
+        <v>0.0044892616515514764</v>
       </c>
       <c r="K2">
-        <v>2.4602317890955217e-05</v>
+        <v>1.1221384311867384e-05</v>
       </c>
       <c r="L2">
-        <v>2.140064234758146e-13</v>
+        <v>3.6308854035278e-08</v>
       </c>
       <c r="M2">
-        <v>2.1429749386017229e-06</v>
+        <v>1.5760080757668625e-08</v>
       </c>
       <c r="N2">
         <v>8</v>
@@ -314,40 +314,40 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.1320281853603338e-05</v>
+        <v>1.1313764135172718e-05</v>
       </c>
       <c r="C3">
-        <v>0.07605942589163539</v>
+        <v>0.10756934806968738</v>
       </c>
       <c r="D3">
-        <v>3.7786303663166431e-05</v>
+        <v>3.219593634185278e-05</v>
       </c>
       <c r="E3">
-        <v>0.0010032383698392734</v>
+        <v>0.00027402856032506678</v>
       </c>
       <c r="F3">
-        <v>2.2191561313121995e-14</v>
+        <v>2.219402462724646e-14</v>
       </c>
       <c r="G3">
-        <v>0.00014396566978971368</v>
+        <v>0.004878963513440423</v>
       </c>
       <c r="H3">
-        <v>0.0016680795216243449</v>
+        <v>0.00044155734162440132</v>
       </c>
       <c r="I3">
-        <v>0.0013876215714692126</v>
+        <v>0.0016040436261990354</v>
       </c>
       <c r="J3">
-        <v>0.91828351933112562</v>
+        <v>0.88510066327314585</v>
       </c>
       <c r="K3">
-        <v>0.0002143989286205245</v>
+        <v>5.3825966440509999e-06</v>
       </c>
       <c r="L3">
-        <v>9.7595078735304947e-08</v>
+        <v>8.1057170615601095e-05</v>
       </c>
       <c r="M3">
-        <v>0.001190546535278189</v>
+        <v>1.4461478189370334e-06</v>
       </c>
       <c r="N3">
         <v>9</v>
@@ -358,40 +358,40 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.6852715122897616e-05</v>
+        <v>1.2943049801880582e-05</v>
       </c>
       <c r="C4">
-        <v>0.0015201626854264049</v>
+        <v>0.0030398848191111106</v>
       </c>
       <c r="D4">
-        <v>0.00030623045918367166</v>
+        <v>0.00017245065794868194</v>
       </c>
       <c r="E4">
-        <v>0.0015602014884282794</v>
+        <v>0.0017732807718427745</v>
       </c>
       <c r="F4">
-        <v>2.2202656421184378e-14</v>
+        <v>2.2202299988530113e-14</v>
       </c>
       <c r="G4">
-        <v>1.3033966817359894e-05</v>
+        <v>0.00011583092028017403</v>
       </c>
       <c r="H4">
-        <v>0.022493285026441344</v>
+        <v>0.0068019486681472376</v>
       </c>
       <c r="I4">
-        <v>0.9696755313772556</v>
+        <v>0.98670692144406591</v>
       </c>
       <c r="J4">
-        <v>0.0033252420328911919</v>
+        <v>0.0013565139717138838</v>
       </c>
       <c r="K4">
-        <v>0.00037649907003816659</v>
+        <v>5.3614762542520362e-06</v>
       </c>
       <c r="L4">
-        <v>1.7773548888866908e-07</v>
+        <v>1.4857013259614664e-05</v>
       </c>
       <c r="M4">
-        <v>0.00071278344288397757</v>
+        <v>7.2075524986326419e-09</v>
       </c>
       <c r="N4">
         <v>8</v>
@@ -402,40 +402,40 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.3652572519567755e-05</v>
+        <v>1.2628867654867189e-06</v>
       </c>
       <c r="C5">
-        <v>0.00073169889654116837</v>
+        <v>0.000289162668454693</v>
       </c>
       <c r="D5">
-        <v>2.6768358772219086e-06</v>
+        <v>0.0001239373220846447</v>
       </c>
       <c r="E5">
-        <v>0.00050546508813710046</v>
+        <v>0.0034877166175772282</v>
       </c>
       <c r="F5">
-        <v>2.2195364901298438e-14</v>
+        <v>2.2204216834758162e-14</v>
       </c>
       <c r="G5">
-        <v>4.0526818843647062e-06</v>
+        <v>4.3577813862326815e-07</v>
       </c>
       <c r="H5">
-        <v>0.052203902590009649</v>
+        <v>0.0096515088369680535</v>
       </c>
       <c r="I5">
-        <v>0.94360450491299419</v>
+        <v>0.9811978423559351</v>
       </c>
       <c r="J5">
-        <v>0.00284379434382786</v>
+        <v>0.0052474303333845534</v>
       </c>
       <c r="K5">
-        <v>2.8440940524735925e-09</v>
+        <v>2.817975453952269e-11</v>
       </c>
       <c r="L5">
-        <v>7.9222099222773256e-14</v>
+        <v>2.1142444221770515e-09</v>
       </c>
       <c r="M5">
-        <v>8.0249234013468756e-05</v>
+        <v>7.0105824514779941e-07</v>
       </c>
       <c r="N5">
         <v>8</v>
@@ -446,40 +446,40 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5.2826912187581762e-06</v>
+        <v>6.5870748161672265e-07</v>
       </c>
       <c r="C6">
-        <v>0.00017247472107253996</v>
+        <v>1.3015901891025139e-05</v>
       </c>
       <c r="D6">
-        <v>5.3515695032876691e-06</v>
+        <v>8.6567517572843551e-05</v>
       </c>
       <c r="E6">
-        <v>0.00035516313072597109</v>
+        <v>0.0025484635296632949</v>
       </c>
       <c r="F6">
-        <v>2.2202439969145673e-14</v>
+        <v>2.2203476546445945e-14</v>
       </c>
       <c r="G6">
-        <v>5.7776478536287477e-06</v>
+        <v>1.3907677311655715e-07</v>
       </c>
       <c r="H6">
-        <v>0.0099371179025502486</v>
+        <v>0.0052933816552235783</v>
       </c>
       <c r="I6">
-        <v>0.98614127830469345</v>
+        <v>0.98888248124640832</v>
       </c>
       <c r="J6">
-        <v>0.003354452717617648</v>
+        <v>0.0031750997828673732</v>
       </c>
       <c r="K6">
-        <v>1.0792632596830477e-10</v>
+        <v>2.9779114762820967e-12</v>
       </c>
       <c r="L6">
-        <v>2.2202439969145673e-14</v>
+        <v>8.1739331077153883e-10</v>
       </c>
       <c r="M6">
-        <v>2.3101206793763995e-05</v>
+        <v>1.9176172535851771e-07</v>
       </c>
       <c r="N6">
         <v>8</v>
@@ -490,40 +490,40 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4.6420833575152689e-05</v>
+        <v>1.2521684230886748e-05</v>
       </c>
       <c r="C7">
-        <v>0.0073855408612142114</v>
+        <v>0.0085057766211408727</v>
       </c>
       <c r="D7">
-        <v>4.0932001087739755e-05</v>
+        <v>0.00057265525204701904</v>
       </c>
       <c r="E7">
-        <v>0.00035516444109003536</v>
+        <v>0.0036277658711176318</v>
       </c>
       <c r="F7">
-        <v>2.2203250904183842e-14</v>
+        <v>2.6477927163581348e-14</v>
       </c>
       <c r="G7">
-        <v>2.6413935771348139e-06</v>
+        <v>5.0756359209809013e-05</v>
       </c>
       <c r="H7">
-        <v>0.0031339598176418236</v>
+        <v>0.0058795518666297222</v>
       </c>
       <c r="I7">
-        <v>0.88429749445022443</v>
+        <v>0.89447636993423196</v>
       </c>
       <c r="J7">
-        <v>0.10465972342455501</v>
+        <v>0.086834901474762777</v>
       </c>
       <c r="K7">
-        <v>1.8680499960230595e-05</v>
+        <v>1.3027956428290684e-07</v>
       </c>
       <c r="L7">
-        <v>1.1136955025070768e-07</v>
+        <v>3.954336358475584e-05</v>
       </c>
       <c r="M7">
-        <v>5.9330907501901632e-05</v>
+        <v>2.7293453674299865e-08</v>
       </c>
       <c r="N7">
         <v>8</v>
@@ -534,40 +534,40 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6.4426046426728397e-05</v>
+        <v>3.6726410941553996e-06</v>
       </c>
       <c r="C8">
-        <v>0.0040870861243243288</v>
+        <v>0.0033568590365780485</v>
       </c>
       <c r="D8">
-        <v>0.0031703061495970807</v>
+        <v>0.00084523463765785343</v>
       </c>
       <c r="E8">
-        <v>0.0031178278875606475</v>
+        <v>0.0028174247000851442</v>
       </c>
       <c r="F8">
-        <v>2.4033193446008816e-14</v>
+        <v>2.2202064295124792e-14</v>
       </c>
       <c r="G8">
-        <v>7.6705354873954812e-05</v>
+        <v>0.00023128375031931513</v>
       </c>
       <c r="H8">
-        <v>0.011091627561241151</v>
+        <v>0.0098942236865359467</v>
       </c>
       <c r="I8">
-        <v>0.97010465272751922</v>
+        <v>0.98102002421291712</v>
       </c>
       <c r="J8">
-        <v>0.0057810184513013042</v>
+        <v>0.00056543907340943624</v>
       </c>
       <c r="K8">
-        <v>0.00021863952946492366</v>
+        <v>1.3529764703052469e-06</v>
       </c>
       <c r="L8">
-        <v>0.00020557516823390448</v>
+        <v>0.0012643430902002713</v>
       </c>
       <c r="M8">
-        <v>0.0020821349994328627</v>
+        <v>1.4219471023132707e-07</v>
       </c>
       <c r="N8">
         <v>8</v>
@@ -578,40 +578,40 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4.8620914307158994e-05</v>
+        <v>1.1411672242457175e-05</v>
       </c>
       <c r="C9">
-        <v>0.088367812788609237</v>
+        <v>0.057486005133625125</v>
       </c>
       <c r="D9">
-        <v>2.8765403107091181e-05</v>
+        <v>1.8755341906023221e-05</v>
       </c>
       <c r="E9">
-        <v>0.00065883615026349901</v>
+        <v>0.00024178918960955946</v>
       </c>
       <c r="F9">
-        <v>2.2197341405326283e-14</v>
+        <v>2.2202860737596743e-14</v>
       </c>
       <c r="G9">
-        <v>0.00027283320609627578</v>
+        <v>0.0079257592397159061</v>
       </c>
       <c r="H9">
-        <v>0.0011871387256891257</v>
+        <v>0.000901732320838442</v>
       </c>
       <c r="I9">
-        <v>0.0024622308687248513</v>
+        <v>0.0027499152233219212</v>
       </c>
       <c r="J9">
-        <v>0.90136942305572787</v>
+        <v>0.93050415970800016</v>
       </c>
       <c r="K9">
-        <v>7.2842952490710075e-05</v>
+        <v>1.2301573030914473e-06</v>
       </c>
       <c r="L9">
-        <v>2.8541526121625766e-07</v>
+        <v>0.00013284733065562426</v>
       </c>
       <c r="M9">
-        <v>0.0055312105197008951</v>
+        <v>2.6394682759333854e-05</v>
       </c>
       <c r="N9">
         <v>9</v>
@@ -622,40 +622,40 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3.3102810354795772e-06</v>
+        <v>3.3645162559337995e-06</v>
       </c>
       <c r="C10">
-        <v>0.004423542374106487</v>
+        <v>0.010164615607272961</v>
       </c>
       <c r="D10">
-        <v>0.00011121373044093817</v>
+        <v>0.00053856180055390616</v>
       </c>
       <c r="E10">
-        <v>0.00070296551066368913</v>
+        <v>0.0051820719173200115</v>
       </c>
       <c r="F10">
-        <v>2.2214565922538462e-14</v>
+        <v>2.221171790241105e-14</v>
       </c>
       <c r="G10">
-        <v>7.6767779227474394e-05</v>
+        <v>0.00089138732446894075</v>
       </c>
       <c r="H10">
-        <v>0.0012257215688886765</v>
+        <v>0.0011344099216967995</v>
       </c>
       <c r="I10">
-        <v>0.32864995919623013</v>
+        <v>0.33147825987543011</v>
       </c>
       <c r="J10">
-        <v>0.66474246049395125</v>
+        <v>0.65053397131146451</v>
       </c>
       <c r="K10">
-        <v>2.6556600962381991e-05</v>
+        <v>4.9456683675447557e-06</v>
       </c>
       <c r="L10">
-        <v>9.7300355510799445e-09</v>
+        <v>6.8079181022763494e-05</v>
       </c>
       <c r="M10">
-        <v>3.7492734435787447e-05</v>
+        <v>3.3287612425321946e-07</v>
       </c>
       <c r="N10">
         <v>9</v>
@@ -666,40 +666,40 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.00037343098673783853</v>
+        <v>0.00013527341401970634</v>
       </c>
       <c r="C11">
-        <v>0.031730524524609928</v>
+        <v>0.067163435773386126</v>
       </c>
       <c r="D11">
-        <v>0.00017289291574786909</v>
+        <v>0.001044469909775973</v>
       </c>
       <c r="E11">
-        <v>0.010680626805899519</v>
+        <v>0.024381143068639467</v>
       </c>
       <c r="F11">
-        <v>2.5238971060376111e-14</v>
+        <v>3.9967013086077435e-14</v>
       </c>
       <c r="G11">
-        <v>4.5054274785166883e-05</v>
+        <v>0.0012737904088459006</v>
       </c>
       <c r="H11">
-        <v>0.90079656908627659</v>
+        <v>0.79134202856782476</v>
       </c>
       <c r="I11">
-        <v>0.041484543536561412</v>
+        <v>0.051431189613375859</v>
       </c>
       <c r="J11">
-        <v>0.01416610656335939</v>
+        <v>0.063226716416192638</v>
       </c>
       <c r="K11">
-        <v>0.00024362159255958546</v>
+        <v>6.0340147307924603e-07</v>
       </c>
       <c r="L11">
-        <v>5.5482942482183884e-09</v>
+        <v>1.3120377838286668e-06</v>
       </c>
       <c r="M11">
-        <v>0.00030662416514312874</v>
+        <v>3.7388642758341044e-08</v>
       </c>
       <c r="N11">
         <v>7</v>
@@ -710,40 +710,40 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>5.4974566243111555e-05</v>
+        <v>1.4358321103285038e-05</v>
       </c>
       <c r="C12">
-        <v>0.011332279513729188</v>
+        <v>0.0052670584571621092</v>
       </c>
       <c r="D12">
-        <v>5.1095327205611297e-05</v>
+        <v>0.00015053984261812836</v>
       </c>
       <c r="E12">
-        <v>0.0010553465743476165</v>
+        <v>0.0036637989924462478</v>
       </c>
       <c r="F12">
-        <v>2.2201420590732524e-14</v>
+        <v>2.3547776614438443e-14</v>
       </c>
       <c r="G12">
-        <v>6.213357056762304e-06</v>
+        <v>0.00011121318362619352</v>
       </c>
       <c r="H12">
-        <v>0.023757014558057687</v>
+        <v>0.019204561984134606</v>
       </c>
       <c r="I12">
-        <v>0.90728373273691831</v>
+        <v>0.94549643007690354</v>
       </c>
       <c r="J12">
-        <v>0.056175967257387854</v>
+        <v>0.026061692376028019</v>
       </c>
       <c r="K12">
-        <v>6.5960998287333724e-05</v>
+        <v>2.2052824286869548e-07</v>
       </c>
       <c r="L12">
-        <v>2.5577619943616274e-07</v>
+        <v>3.011963311862532e-05</v>
       </c>
       <c r="M12">
-        <v>0.00021715933454484633</v>
+        <v>6.6045927748988845e-09</v>
       </c>
       <c r="N12">
         <v>8</v>
@@ -754,40 +754,40 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.971548055099876e-06</v>
+        <v>1.359317855359442e-06</v>
       </c>
       <c r="C13">
-        <v>0.029072606437887609</v>
+        <v>0.030238952291590116</v>
       </c>
       <c r="D13">
-        <v>3.0147158403290899e-05</v>
+        <v>0.00016278791672213945</v>
       </c>
       <c r="E13">
-        <v>0.00071581760247397511</v>
+        <v>0.0003927772574086039</v>
       </c>
       <c r="F13">
-        <v>2.2207213203101537e-14</v>
+        <v>2.2228063333650236e-14</v>
       </c>
       <c r="G13">
-        <v>0.0019835552366228239</v>
+        <v>0.038530291442871074</v>
       </c>
       <c r="H13">
-        <v>0.0042506972638773864</v>
+        <v>0.00034448482759763614</v>
       </c>
       <c r="I13">
-        <v>0.0085455623116917432</v>
+        <v>0.010585366559901378</v>
       </c>
       <c r="J13">
-        <v>0.95499209330471913</v>
+        <v>0.91940057910959927</v>
       </c>
       <c r="K13">
-        <v>0.00033600818500929976</v>
+        <v>1.2080945904214046e-05</v>
       </c>
       <c r="L13">
-        <v>1.2035613704577177e-07</v>
+        <v>0.00033097560388756545</v>
       </c>
       <c r="M13">
-        <v>7.04205951003566e-05</v>
+        <v>3.4472664035962719e-07</v>
       </c>
       <c r="N13">
         <v>9</v>
@@ -798,40 +798,40 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3.7010305121798729e-06</v>
+        <v>1.8562204617802168e-06</v>
       </c>
       <c r="C14">
-        <v>0.04196413379620418</v>
+        <v>0.018136758793823694</v>
       </c>
       <c r="D14">
-        <v>1.5018577592354951e-05</v>
+        <v>1.3540272002276106e-05</v>
       </c>
       <c r="E14">
-        <v>0.00052000108549899826</v>
+        <v>0.00020247088395354359</v>
       </c>
       <c r="F14">
-        <v>2.2214201470827531e-14</v>
+        <v>2.2216044491894926e-14</v>
       </c>
       <c r="G14">
-        <v>0.0010039488396810343</v>
+        <v>0.01641170343735749</v>
       </c>
       <c r="H14">
-        <v>0.00035759764345193174</v>
+        <v>0.00038872788277892045</v>
       </c>
       <c r="I14">
-        <v>0.020192696907053317</v>
+        <v>0.015155738115219048</v>
       </c>
       <c r="J14">
-        <v>0.93568964047490144</v>
+        <v>0.94812249279117911</v>
       </c>
       <c r="K14">
-        <v>1.6455472469225945e-05</v>
+        <v>9.8720679630080269e-08</v>
       </c>
       <c r="L14">
-        <v>2.1358106006383798e-06</v>
+        <v>0.0015627413467692323</v>
       </c>
       <c r="M14">
-        <v>0.00023467036201256733</v>
+        <v>3.8715357530435702e-06</v>
       </c>
       <c r="N14">
         <v>9</v>
@@ -842,40 +842,40 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.00047265914469453934</v>
+        <v>6.2522028885380967e-05</v>
       </c>
       <c r="C15">
-        <v>0.037473912760746957</v>
+        <v>0.019083236000551822</v>
       </c>
       <c r="D15">
-        <v>0.00022390727905981404</v>
+        <v>0.00041184752203457005</v>
       </c>
       <c r="E15">
-        <v>0.0027856987547177354</v>
+        <v>0.0068313873035977359</v>
       </c>
       <c r="F15">
-        <v>3.0706879804826746e-14</v>
+        <v>4.3429317101832338e-14</v>
       </c>
       <c r="G15">
-        <v>3.0272773153754625e-05</v>
+        <v>0.0004110536804354939</v>
       </c>
       <c r="H15">
-        <v>0.010932710324459352</v>
+        <v>0.046764716085387938</v>
       </c>
       <c r="I15">
-        <v>0.78632401861979639</v>
+        <v>0.81043376307838655</v>
       </c>
       <c r="J15">
-        <v>0.16127388954576596</v>
+        <v>0.1145364774889336</v>
       </c>
       <c r="K15">
-        <v>0.00016310941698223589</v>
+        <v>4.0600294387581189e-07</v>
       </c>
       <c r="L15">
-        <v>3.5504535955318311e-05</v>
+        <v>0.001464478363293329</v>
       </c>
       <c r="M15">
-        <v>0.00028431684463723256</v>
+        <v>1.1244550614766293e-07</v>
       </c>
       <c r="N15">
         <v>8</v>
@@ -886,40 +886,40 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>9.163799957169227e-06</v>
+        <v>8.6215265900315384e-05</v>
       </c>
       <c r="C16">
-        <v>0.0019739060793025152</v>
+        <v>0.00020694529561348404</v>
       </c>
       <c r="D16">
-        <v>0.00029056919409411357</v>
+        <v>0.0029933901849362875</v>
       </c>
       <c r="E16">
-        <v>0.0019256199128200942</v>
+        <v>0.0060359763174055317</v>
       </c>
       <c r="F16">
-        <v>2.2202547139483342e-14</v>
+        <v>2.2203929589635515e-14</v>
       </c>
       <c r="G16">
-        <v>5.2525766864075404e-05</v>
+        <v>5.526100550249458e-06</v>
       </c>
       <c r="H16">
-        <v>0.0096633906301658024</v>
+        <v>0.00022126164717193179</v>
       </c>
       <c r="I16">
-        <v>0.9750439044985324</v>
+        <v>0.97945841966749936</v>
       </c>
       <c r="J16">
-        <v>0.011037147758804114</v>
+        <v>0.010992048567266075</v>
       </c>
       <c r="K16">
-        <v>7.3860071746749693e-07</v>
+        <v>1.9398073453430045e-07</v>
       </c>
       <c r="L16">
-        <v>2.2202547139483342e-14</v>
+        <v>3.2669639385970647e-09</v>
       </c>
       <c r="M16">
-        <v>3.0337586977918382e-06</v>
+        <v>1.9705936152690365e-08</v>
       </c>
       <c r="N16">
         <v>8</v>
@@ -930,40 +930,40 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7.6331487207825673e-06</v>
+        <v>6.0644026559914171e-05</v>
       </c>
       <c r="C17">
-        <v>0.0015057543913905506</v>
+        <v>0.00048451945631801006</v>
       </c>
       <c r="D17">
-        <v>0.00051712455007821387</v>
+        <v>0.0026882706665122963</v>
       </c>
       <c r="E17">
-        <v>0.0041976264830677883</v>
+        <v>0.011791588801257391</v>
       </c>
       <c r="F17">
-        <v>3.2169225446318982e-14</v>
+        <v>2.5465657731016591e-14</v>
       </c>
       <c r="G17">
-        <v>6.1280069526086612e-05</v>
+        <v>7.4623410658775802e-06</v>
       </c>
       <c r="H17">
-        <v>0.035676320278904383</v>
+        <v>0.0013786634226666769</v>
       </c>
       <c r="I17">
-        <v>0.93104153058691363</v>
+        <v>0.95722543889048395</v>
       </c>
       <c r="J17">
-        <v>0.026981840330572295</v>
+        <v>0.026362270332290039</v>
       </c>
       <c r="K17">
-        <v>5.2113077388514963e-06</v>
+        <v>1.0843568093633814e-06</v>
       </c>
       <c r="L17">
-        <v>3.3105651563032442e-14</v>
+        <v>1.2817297507973042e-08</v>
       </c>
       <c r="M17">
-        <v>5.6788530221774983e-06</v>
+        <v>4.4888713314404909e-08</v>
       </c>
       <c r="N17">
         <v>8</v>
@@ -974,40 +974,40 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.7115166464245919e-05</v>
+        <v>1.102478424161844e-06</v>
       </c>
       <c r="C18">
-        <v>0.00010863863561502234</v>
+        <v>4.1037617854420946e-05</v>
       </c>
       <c r="D18">
-        <v>1.9664198243774965e-07</v>
+        <v>9.5124771792721156e-06</v>
       </c>
       <c r="E18">
-        <v>0.00087040134373002267</v>
+        <v>0.0025762625228022786</v>
       </c>
       <c r="F18">
-        <v>2.2201723105064183e-14</v>
+        <v>2.2203252599406941e-14</v>
       </c>
       <c r="G18">
-        <v>1.0135390499921919e-06</v>
+        <v>1.9524174160220874e-08</v>
       </c>
       <c r="H18">
-        <v>0.015508027647857775</v>
+        <v>0.0073694062193626515</v>
       </c>
       <c r="I18">
-        <v>0.97947541333593069</v>
+        <v>0.9874260443380688</v>
       </c>
       <c r="J18">
-        <v>0.0010273288275518882</v>
+        <v>0.002554166101092715</v>
       </c>
       <c r="K18">
-        <v>1.3586453688625313e-11</v>
+        <v>4.6252797591086529e-13</v>
       </c>
       <c r="L18">
-        <v>2.2201723105064183e-14</v>
+        <v>1.6362249944843269e-09</v>
       </c>
       <c r="M18">
-        <v>0.0029918648481870379</v>
+        <v>2.2447084331831808e-05</v>
       </c>
       <c r="N18">
         <v>8</v>
@@ -1018,40 +1018,40 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>3.0577029308851233e-05</v>
+        <v>3.268300177226258e-06</v>
       </c>
       <c r="C19">
-        <v>0.0014817370337641233</v>
+        <v>0.0020126198530447947</v>
       </c>
       <c r="D19">
-        <v>0.00078338165488023965</v>
+        <v>0.00045814716565381657</v>
       </c>
       <c r="E19">
-        <v>0.0022171692407812619</v>
+        <v>0.0025608376042820097</v>
       </c>
       <c r="F19">
-        <v>2.2340324786754357e-14</v>
+        <v>2.2200767723256377e-14</v>
       </c>
       <c r="G19">
-        <v>2.5793794021700995e-05</v>
+        <v>0.00026149668602629611</v>
       </c>
       <c r="H19">
-        <v>0.022434342751472224</v>
+        <v>0.0081996490120605399</v>
       </c>
       <c r="I19">
-        <v>0.96593241918209949</v>
+        <v>0.98187413008516056</v>
       </c>
       <c r="J19">
-        <v>0.0062216890046519827</v>
+        <v>0.0035658793502258861</v>
       </c>
       <c r="K19">
-        <v>0.00020692188432979493</v>
+        <v>1.1735112957800829e-06</v>
       </c>
       <c r="L19">
-        <v>4.9689315848430084e-05</v>
+        <v>0.0010627075128982419</v>
       </c>
       <c r="M19">
-        <v>0.00061627910881967838</v>
+        <v>9.0919152694906562e-08</v>
       </c>
       <c r="N19">
         <v>8</v>
@@ -1062,40 +1062,40 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>5.277608641775714e-06</v>
+        <v>2.9778018254696998e-05</v>
       </c>
       <c r="C20">
-        <v>0.0029380444619564725</v>
+        <v>0.00097358154490700185</v>
       </c>
       <c r="D20">
-        <v>0.00049778852840381342</v>
+        <v>0.0070340177388677743</v>
       </c>
       <c r="E20">
-        <v>0.00063565510745781603</v>
+        <v>0.0036053847702947842</v>
       </c>
       <c r="F20">
-        <v>2.2202956613637582e-14</v>
+        <v>2.2204138307773693e-14</v>
       </c>
       <c r="G20">
-        <v>0.0010281122637052678</v>
+        <v>0.00019262654076590568</v>
       </c>
       <c r="H20">
-        <v>0.0021958814349341093</v>
+        <v>0.00089752825584953077</v>
       </c>
       <c r="I20">
-        <v>0.97802348153264562</v>
+        <v>0.96235950918130375</v>
       </c>
       <c r="J20">
-        <v>0.01465036789128425</v>
+        <v>0.024899239246980079</v>
       </c>
       <c r="K20">
-        <v>2.3521635553762305e-05</v>
+        <v>1.3048523730139133e-06</v>
       </c>
       <c r="L20">
-        <v>1.5777401395060423e-10</v>
+        <v>7.0209554575276353e-06</v>
       </c>
       <c r="M20">
-        <v>1.869377620759805e-06</v>
+        <v>8.8949239259548151e-09</v>
       </c>
       <c r="N20">
         <v>8</v>
@@ -1106,40 +1106,40 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>5.7687116001632597e-06</v>
+        <v>3.5518386399552123e-07</v>
       </c>
       <c r="C21">
-        <v>0.00011851004407466833</v>
+        <v>2.0949592743056548e-05</v>
       </c>
       <c r="D21">
-        <v>1.5354553782450558e-07</v>
+        <v>1.095978703948174e-05</v>
       </c>
       <c r="E21">
-        <v>0.0001157114489279789</v>
+        <v>0.0010083672795177343</v>
       </c>
       <c r="F21">
-        <v>2.2198940984641542e-14</v>
+        <v>2.2202083173431206e-14</v>
       </c>
       <c r="G21">
-        <v>1.4141724008183054e-06</v>
+        <v>5.0248204854623898e-08</v>
       </c>
       <c r="H21">
-        <v>0.018801943848590644</v>
+        <v>0.013341379702945348</v>
       </c>
       <c r="I21">
-        <v>0.97998884376711581</v>
+        <v>0.98220971249100497</v>
       </c>
       <c r="J21">
-        <v>0.00087184497693594239</v>
+        <v>0.0034072054032749746</v>
       </c>
       <c r="K21">
-        <v>2.4946688049114994e-10</v>
+        <v>9.8673765198929117e-12</v>
       </c>
       <c r="L21">
-        <v>4.217333927561612e-14</v>
+        <v>2.0249217441877883e-09</v>
       </c>
       <c r="M21">
-        <v>9.5809235284964272e-05</v>
+        <v>1.0182765944951061e-06</v>
       </c>
       <c r="N21">
         <v>8</v>
@@ -1150,40 +1150,40 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.00040967696419505186</v>
+        <v>0.00075539623197553663</v>
       </c>
       <c r="C22">
-        <v>0.0078028027393174425</v>
+        <v>0.0067435374820675152</v>
       </c>
       <c r="D22">
-        <v>0.0057963538749547117</v>
+        <v>0.004777557558146156</v>
       </c>
       <c r="E22">
-        <v>0.00021314253524721736</v>
+        <v>0.00051427008099851567</v>
       </c>
       <c r="F22">
-        <v>2.220615544785185e-14</v>
+        <v>2.2204241201391563e-14</v>
       </c>
       <c r="G22">
-        <v>0.00027004188561313182</v>
+        <v>3.6599741405193355e-05</v>
       </c>
       <c r="H22">
-        <v>0.0063365933442762479</v>
+        <v>0.0010666913642953441</v>
       </c>
       <c r="I22">
-        <v>0.9677222906490679</v>
+        <v>0.97912644604539134</v>
       </c>
       <c r="J22">
-        <v>0.011411002956715934</v>
+        <v>0.0069789434656430012</v>
       </c>
       <c r="K22">
-        <v>2.6006762473062361e-05</v>
+        <v>4.6411632840401266e-07</v>
       </c>
       <c r="L22">
-        <v>3.4940869692096275e-11</v>
+        <v>8.981974624342337e-08</v>
       </c>
       <c r="M22">
-        <v>1.2088253176300571e-05</v>
+        <v>4.0939802375591056e-09</v>
       </c>
       <c r="N22">
         <v>8</v>
@@ -1194,40 +1194,40 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>3.977770040448537e-06</v>
+        <v>1.2359592503231921e-05</v>
       </c>
       <c r="C23">
-        <v>0.0052367084249641468</v>
+        <v>0.0010045665637982832</v>
       </c>
       <c r="D23">
-        <v>0.0011271938091373308</v>
+        <v>0.0043516812463484274</v>
       </c>
       <c r="E23">
-        <v>0.0018070173587255633</v>
+        <v>0.016290731000887727</v>
       </c>
       <c r="F23">
-        <v>2.2203226736429741e-14</v>
+        <v>2.2202566650507865e-14</v>
       </c>
       <c r="G23">
-        <v>4.3105736591503986e-05</v>
+        <v>9.7813214544114699e-06</v>
       </c>
       <c r="H23">
-        <v>0.0026135993379169621</v>
+        <v>0.00040693988868510536</v>
       </c>
       <c r="I23">
-        <v>0.98268913984239215</v>
+        <v>0.96957649773322785</v>
       </c>
       <c r="J23">
-        <v>0.0064727050013190313</v>
+        <v>0.0083461857459495251</v>
       </c>
       <c r="K23">
-        <v>4.4851758255025698e-06</v>
+        <v>1.1936697622054685e-06</v>
       </c>
       <c r="L23">
-        <v>1.8842236672582444e-13</v>
+        <v>4.5886826287580851e-08</v>
       </c>
       <c r="M23">
-        <v>2.0675428766168045e-06</v>
+        <v>1.7350534638453845e-08</v>
       </c>
       <c r="N23">
         <v>8</v>
@@ -1238,40 +1238,40 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.013841368295641246</v>
+        <v>0.013483133316158332</v>
       </c>
       <c r="C24">
-        <v>0.075125196416555531</v>
+        <v>0.052648826639506922</v>
       </c>
       <c r="D24">
-        <v>0.014468680306032374</v>
+        <v>0.014688071870516602</v>
       </c>
       <c r="E24">
-        <v>0.01723397075385771</v>
+        <v>0.01468175327060111</v>
       </c>
       <c r="F24">
-        <v>0.58395444094488769</v>
+        <v>0.39848844910658099</v>
       </c>
       <c r="G24">
-        <v>0.019621484706743984</v>
+        <v>0.032255204084008914</v>
       </c>
       <c r="H24">
-        <v>0.013867036776517407</v>
+        <v>0.015922473145511751</v>
       </c>
       <c r="I24">
-        <v>0.035762858047281153</v>
+        <v>0.018280447029353105</v>
       </c>
       <c r="J24">
-        <v>0.18689122440726</v>
+        <v>0.39885600171686175</v>
       </c>
       <c r="K24">
-        <v>0.01309086712544988</v>
+        <v>0.013400014960754384</v>
       </c>
       <c r="L24">
-        <v>0.013067148474531137</v>
+        <v>0.013891615976760658</v>
       </c>
       <c r="M24">
-        <v>0.013075723745241635</v>
+        <v>0.013404008883385643</v>
       </c>
       <c r="N24">
         <v>5</v>
@@ -1282,40 +1282,40 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.01316497624009986</v>
+        <v>0.012791336770269954</v>
       </c>
       <c r="C25">
-        <v>0.022974953408273768</v>
+        <v>0.015469654539285524</v>
       </c>
       <c r="D25">
-        <v>0.013294221766389889</v>
+        <v>0.015509341674616163</v>
       </c>
       <c r="E25">
-        <v>0.017571269962089485</v>
+        <v>0.01928111374396663</v>
       </c>
       <c r="F25">
-        <v>0.19559812775441918</v>
+        <v>0.13680553224955183</v>
       </c>
       <c r="G25">
-        <v>0.013231711906654987</v>
+        <v>0.012563973016155161</v>
       </c>
       <c r="H25">
-        <v>0.02635009159006179</v>
+        <v>0.013934297533300565</v>
       </c>
       <c r="I25">
-        <v>0.63383308897838309</v>
+        <v>0.7126995714796992</v>
       </c>
       <c r="J25">
-        <v>0.024428070595558963</v>
+        <v>0.023137602125683315</v>
       </c>
       <c r="K25">
-        <v>0.013249394210186822</v>
+        <v>0.012700337435348831</v>
       </c>
       <c r="L25">
-        <v>0.013140533059568272</v>
+        <v>0.01255346966623188</v>
       </c>
       <c r="M25">
-        <v>0.013163560528314014</v>
+        <v>0.01255376976589103</v>
       </c>
       <c r="N25">
         <v>8</v>
@@ -1326,40 +1326,40 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.7175468127996491e-05</v>
+        <v>8.1072852553227531e-05</v>
       </c>
       <c r="C26">
-        <v>0.00045903336528693635</v>
+        <v>0.00025229537695581762</v>
       </c>
       <c r="D26">
-        <v>4.1954992804700868e-05</v>
+        <v>0.0010248053636075902</v>
       </c>
       <c r="E26">
-        <v>0.0020912648740770341</v>
+        <v>0.01146603229407317</v>
       </c>
       <c r="F26">
-        <v>2.2202736021844788e-14</v>
+        <v>2.4556453073289374e-14</v>
       </c>
       <c r="G26">
-        <v>4.7035519600745283e-05</v>
+        <v>1.0248149683045789e-06</v>
       </c>
       <c r="H26">
-        <v>0.039368639300074872</v>
+        <v>0.0016148644810519721</v>
       </c>
       <c r="I26">
-        <v>0.95153949670640869</v>
+        <v>0.97758081763373161</v>
       </c>
       <c r="J26">
-        <v>0.0064293292082894136</v>
+        <v>0.0079787681409622703</v>
       </c>
       <c r="K26">
-        <v>1.9664561255634135e-07</v>
+        <v>5.1654569102132268e-08</v>
       </c>
       <c r="L26">
-        <v>2.2202736021844788e-14</v>
+        <v>2.2548373154388307e-09</v>
       </c>
       <c r="M26">
-        <v>5.873919672866812e-06</v>
+        <v>2.6513266484863428e-07</v>
       </c>
       <c r="N26">
         <v>8</v>
@@ -1370,40 +1370,40 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>3.625528677090227e-05</v>
+        <v>0.00022658527259174379</v>
       </c>
       <c r="C27">
-        <v>0.00092711710320975344</v>
+        <v>0.0015182193229246845</v>
       </c>
       <c r="D27">
-        <v>6.617580223323905e-05</v>
+        <v>0.0015282881854240685</v>
       </c>
       <c r="E27">
-        <v>0.0033642138633856412</v>
+        <v>0.0080878107299240422</v>
       </c>
       <c r="F27">
-        <v>3.1629575470096786e-14</v>
+        <v>5.681152950571026e-14</v>
       </c>
       <c r="G27">
-        <v>4.3072744576339485e-05</v>
+        <v>2.3178709642371197e-06</v>
       </c>
       <c r="H27">
-        <v>0.048529822279232443</v>
+        <v>0.003382156608967042</v>
       </c>
       <c r="I27">
-        <v>0.92975683721468527</v>
+        <v>0.95600163727018461</v>
       </c>
       <c r="J27">
-        <v>0.017251514478951669</v>
+        <v>0.029252341378341571</v>
       </c>
       <c r="K27">
-        <v>1.8535547804280113e-07</v>
+        <v>8.8867720974853781e-08</v>
       </c>
       <c r="L27">
-        <v>3.2505781220798533e-14</v>
+        <v>5.9100914065824277e-09</v>
       </c>
       <c r="M27">
-        <v>2.4805871412520502e-05</v>
+        <v>5.4858280863650135e-07</v>
       </c>
       <c r="N27">
         <v>8</v>
@@ -1414,40 +1414,40 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.2829465545674543e-05</v>
+        <v>3.98722104528546e-05</v>
       </c>
       <c r="C28">
-        <v>0.00028711936798466109</v>
+        <v>0.00022250590686722849</v>
       </c>
       <c r="D28">
-        <v>1.2284619769397949e-05</v>
+        <v>0.00029738870861042337</v>
       </c>
       <c r="E28">
-        <v>0.0034348882790436789</v>
+        <v>0.01282899248516679</v>
       </c>
       <c r="F28">
-        <v>2.219976697494835e-14</v>
+        <v>2.2203866208697277e-14</v>
       </c>
       <c r="G28">
-        <v>9.9023880007778864e-05</v>
+        <v>8.856082276645281e-06</v>
       </c>
       <c r="H28">
-        <v>0.070750297244642463</v>
+        <v>0.0013049320650339224</v>
       </c>
       <c r="I28">
-        <v>0.91900741675435771</v>
+        <v>0.97737646780059229</v>
       </c>
       <c r="J28">
-        <v>0.0063765192801712341</v>
+        <v>0.0079206995306303502</v>
       </c>
       <c r="K28">
-        <v>3.3709284988427613e-08</v>
+        <v>4.8945042073111716e-09</v>
       </c>
       <c r="L28">
-        <v>2.219976697494835e-14</v>
+        <v>9.4488000950884041e-10</v>
       </c>
       <c r="M28">
-        <v>1.9587399148195176e-05</v>
+        <v>2.793709632405394e-07</v>
       </c>
       <c r="N28">
         <v>8</v>
@@ -1458,40 +1458,40 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.013653883484028672</v>
+        <v>0.013449444737899116</v>
       </c>
       <c r="C29">
-        <v>0.022210395698120531</v>
+        <v>0.020960535185517395</v>
       </c>
       <c r="D29">
-        <v>0.014175519150403534</v>
+        <v>0.014201236348058853</v>
       </c>
       <c r="E29">
-        <v>0.015899729496458619</v>
+        <v>0.01351204849858061</v>
       </c>
       <c r="F29">
-        <v>0.43919523087208057</v>
+        <v>0.49363282349269372</v>
       </c>
       <c r="G29">
-        <v>0.069356137911132099</v>
+        <v>0.043337846529104239</v>
       </c>
       <c r="H29">
-        <v>0.013857226593256555</v>
+        <v>0.01726464280121591</v>
       </c>
       <c r="I29">
-        <v>0.037512067347619991</v>
+        <v>0.019489136404511616</v>
       </c>
       <c r="J29">
-        <v>0.33414973255601238</v>
+        <v>0.29952918918107385</v>
       </c>
       <c r="K29">
-        <v>0.013304207027035993</v>
+        <v>0.013181965084290674</v>
       </c>
       <c r="L29">
-        <v>0.013445828713198871</v>
+        <v>0.038246776483999184</v>
       </c>
       <c r="M29">
-        <v>0.013240041150652195</v>
+        <v>0.013194355253054863</v>
       </c>
       <c r="N29">
         <v>5</v>
@@ -1502,40 +1502,40 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.00023637799295555533</v>
+        <v>0.00017728161566739052</v>
       </c>
       <c r="C30">
-        <v>0.025879622423472203</v>
+        <v>0.014410133427075707</v>
       </c>
       <c r="D30">
-        <v>9.2310500060681315e-05</v>
+        <v>0.00022364248916966668</v>
       </c>
       <c r="E30">
-        <v>0.0069841438277055429</v>
+        <v>0.0061670032761889232</v>
       </c>
       <c r="F30">
-        <v>2.3535066936040765e-14</v>
+        <v>2.2203869961931769e-14</v>
       </c>
       <c r="G30">
-        <v>7.0025888283375777e-05</v>
+        <v>0.00033319177573178647</v>
       </c>
       <c r="H30">
-        <v>0.93007661944819509</v>
+        <v>0.91304179749308101</v>
       </c>
       <c r="I30">
-        <v>0.017410537296019647</v>
+        <v>0.032304917411741012</v>
       </c>
       <c r="J30">
-        <v>0.017198379553298504</v>
+        <v>0.033339024739490727</v>
       </c>
       <c r="K30">
-        <v>0.00073334147919184168</v>
+        <v>2.73582243370853e-06</v>
       </c>
       <c r="L30">
-        <v>1.6511658503287418e-09</v>
+        <v>1.2020100901200244e-07</v>
       </c>
       <c r="M30">
-        <v>0.0013186399396282345</v>
+        <v>1.5174838880942807e-07</v>
       </c>
       <c r="N30">
         <v>7</v>
@@ -1546,40 +1546,40 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7.1736111321950634e-07</v>
+        <v>8.0444614151324745e-08</v>
       </c>
       <c r="C31">
-        <v>0.007160514476767914</v>
+        <v>0.0029758755359354304</v>
       </c>
       <c r="D31">
-        <v>1.4955581832292694e-07</v>
+        <v>7.4390536865392519e-07</v>
       </c>
       <c r="E31">
-        <v>0.00056115450578335</v>
+        <v>4.5772775634683158e-05</v>
       </c>
       <c r="F31">
-        <v>2.220475653769447e-14</v>
+        <v>2.2205710880677568e-14</v>
       </c>
       <c r="G31">
-        <v>0.0015708863173643874</v>
+        <v>0.013461660884329988</v>
       </c>
       <c r="H31">
-        <v>0.013013523509900281</v>
+        <v>0.0081041021199595841</v>
       </c>
       <c r="I31">
-        <v>0.0010940246994194051</v>
+        <v>0.0018289252102657283</v>
       </c>
       <c r="J31">
-        <v>0.97658439963835453</v>
+        <v>0.97308171842197722</v>
       </c>
       <c r="K31">
-        <v>6.5771018350443067e-06</v>
+        <v>7.1009572316274685e-08</v>
       </c>
       <c r="L31">
-        <v>1.0470875462363665e-06</v>
+        <v>0.00049962899989467163</v>
       </c>
       <c r="M31">
-        <v>7.0057460750827865e-06</v>
+        <v>1.4206924253207169e-06</v>
       </c>
       <c r="N31">
         <v>9</v>
@@ -1590,40 +1590,40 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>4.2250953900613401e-07</v>
+        <v>5.3841508691027839e-09</v>
       </c>
       <c r="C32">
-        <v>0.0028388249782540127</v>
+        <v>0.00079293351866415807</v>
       </c>
       <c r="D32">
-        <v>6.4597664066167996e-08</v>
+        <v>3.1119304449394049e-07</v>
       </c>
       <c r="E32">
-        <v>0.0002303553351929752</v>
+        <v>9.9433074835228704e-06</v>
       </c>
       <c r="F32">
-        <v>2.2202402596625145e-14</v>
+        <v>2.2203007395275617e-14</v>
       </c>
       <c r="G32">
-        <v>0.00072440993582612403</v>
+        <v>0.0025314289367156981</v>
       </c>
       <c r="H32">
-        <v>0.0019836021522592951</v>
+        <v>0.00097197002678345984</v>
       </c>
       <c r="I32">
-        <v>0.00027240584706879394</v>
+        <v>0.00069647836559646721</v>
       </c>
       <c r="J32">
-        <v>0.99392945481920747</v>
+        <v>0.9925798370849096</v>
       </c>
       <c r="K32">
-        <v>2.2741065979078312e-08</v>
+        <v>9.8474100632645806e-12</v>
       </c>
       <c r="L32">
-        <v>1.7161988679490413e-05</v>
+        <v>0.002410726293931863</v>
       </c>
       <c r="M32">
-        <v>3.2750952206164988e-06</v>
+        <v>6.3658788504186067e-06</v>
       </c>
       <c r="N32">
         <v>9</v>
@@ -1634,40 +1634,40 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.013328655331935488</v>
+        <v>0.013399968659632965</v>
       </c>
       <c r="C33">
-        <v>0.057563125454236898</v>
+        <v>0.048698457866987524</v>
       </c>
       <c r="D33">
-        <v>0.014965991101362874</v>
+        <v>0.013862942106149648</v>
       </c>
       <c r="E33">
-        <v>0.016703812966278223</v>
+        <v>0.014219881287344622</v>
       </c>
       <c r="F33">
-        <v>0.40561955391622706</v>
+        <v>0.40485936394235084</v>
       </c>
       <c r="G33">
-        <v>0.020907378873216663</v>
+        <v>0.035805502674174983</v>
       </c>
       <c r="H33">
-        <v>0.013448955210211359</v>
+        <v>0.015564343721588769</v>
       </c>
       <c r="I33">
-        <v>0.053244388327365229</v>
+        <v>0.024027002490754016</v>
       </c>
       <c r="J33">
-        <v>0.36427236903736199</v>
+        <v>0.38631514755314578</v>
       </c>
       <c r="K33">
-        <v>0.0133022488742108</v>
+        <v>0.01329425900873814</v>
       </c>
       <c r="L33">
-        <v>0.013317776789530252</v>
+        <v>0.016645570320202838</v>
       </c>
       <c r="M33">
-        <v>0.013325744118063136</v>
+        <v>0.013307560368929876</v>
       </c>
       <c r="N33">
         <v>5</v>
@@ -1678,40 +1678,40 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2.5527539975369876e-05</v>
+        <v>0.00035344616022811088</v>
       </c>
       <c r="C34">
-        <v>0.0025921332731664061</v>
+        <v>0.0010318795755127749</v>
       </c>
       <c r="D34">
-        <v>0.00012329503015645377</v>
+        <v>0.0019629557858080893</v>
       </c>
       <c r="E34">
-        <v>0.0020716755360204574</v>
+        <v>0.0036880459797281719</v>
       </c>
       <c r="F34">
-        <v>2.359548906413607e-14</v>
+        <v>2.3069257894918052e-14</v>
       </c>
       <c r="G34">
-        <v>0.00027684861033792571</v>
+        <v>2.0403684124551128e-05</v>
       </c>
       <c r="H34">
-        <v>0.035295797965895236</v>
+        <v>0.00079899013878127029</v>
       </c>
       <c r="I34">
-        <v>0.93145864169393444</v>
+        <v>0.9540793938615092</v>
       </c>
       <c r="J34">
-        <v>0.02813738013362143</v>
+        <v>0.038062824007621725</v>
       </c>
       <c r="K34">
-        <v>4.8737394736144978e-06</v>
+        <v>1.9393702318692931e-06</v>
       </c>
       <c r="L34">
-        <v>2.3697750727673007e-14</v>
+        <v>2.9395856844104455e-09</v>
       </c>
       <c r="M34">
-        <v>1.3826477371426173e-05</v>
+        <v>1.184968453704346e-07</v>
       </c>
       <c r="N34">
         <v>8</v>
